--- a/OrbisGame/Container/Data/WaffenCustom.xlsx
+++ b/OrbisGame/Container/Data/WaffenCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24527"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D3792191-7CF1-4BDD-BED9-8684445554DE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1225960-BC30-418B-8581-0CA959ABDF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8235" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
@@ -20,8 +20,12 @@
     <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId5"/>
     <sheet name="AST" sheetId="6" r:id="rId6"/>
     <sheet name="Feuerhand" sheetId="7" r:id="rId7"/>
-    <sheet name="Froschzunge" sheetId="9" r:id="rId8"/>
-    <sheet name="Schnabel" sheetId="10" r:id="rId9"/>
+    <sheet name="Tabelle1" sheetId="11" r:id="rId8"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId9"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId10"/>
+    <sheet name="Schwur" sheetId="12" r:id="rId11"/>
+    <sheet name="Erbentöter" sheetId="13" r:id="rId12"/>
+    <sheet name="Verraetersende" sheetId="14" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -42,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="244" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="43">
   <si>
     <t>Werte</t>
   </si>
@@ -159,6 +163,18 @@
   </si>
   <si>
     <t>brennen</t>
+  </si>
+  <si>
+    <t>bluten</t>
+  </si>
+  <si>
+    <t>Armbrust</t>
+  </si>
+  <si>
+    <t>Dolch</t>
+  </si>
+  <si>
+    <t>Ja</t>
   </si>
 </sst>
 </file>
@@ -479,15 +495,15 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E25" sqref="E25"/>
+      <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.15625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -495,7 +511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -503,7 +519,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -511,7 +527,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -519,7 +535,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -527,7 +543,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -535,7 +551,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -543,7 +559,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -551,7 +567,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -559,7 +575,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -567,7 +583,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -575,7 +591,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -583,7 +599,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -591,7 +607,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -599,7 +615,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -607,7 +623,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -615,7 +631,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -623,7 +639,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -631,7 +647,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -639,7 +655,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -647,7 +663,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -657,6 +673,741 @@
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA464286-EBB9-42CB-92AF-99DBB7213220}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0.06</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I19" sqref="I19"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
@@ -668,12 +1419,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.15625" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -681,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -689,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -697,7 +1448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -705,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -713,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -721,7 +1472,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -729,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -737,7 +1488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -745,7 +1496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -753,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -761,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -769,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -777,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -785,7 +1536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -793,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -801,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -809,7 +1560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -817,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -825,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -833,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -851,15 +1602,15 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.578125" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -867,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -875,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -883,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -891,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -899,7 +1650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -907,7 +1658,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -915,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -923,7 +1674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -931,7 +1682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -939,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -947,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -955,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -963,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -971,7 +1722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -979,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -987,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -995,7 +1746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1003,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1011,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1019,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1040,9 +1791,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1050,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1058,7 +1809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1066,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1074,7 +1825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1082,7 +1833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1090,7 +1841,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1098,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1106,7 +1857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1114,7 +1865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1122,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1130,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1138,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1146,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1154,7 +1905,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1162,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1170,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1178,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1186,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1194,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1202,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1223,9 +1974,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1233,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1241,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1249,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1257,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1265,7 +2016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1273,7 +2024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1281,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1289,7 +2040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1297,7 +2048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1305,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1313,7 +2064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1321,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1329,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1337,7 +2088,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1345,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1353,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1361,7 +2112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1369,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1377,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1385,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1406,9 +2157,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1416,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1424,7 +2175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1432,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1440,7 +2191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1448,7 +2199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1456,7 +2207,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1464,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1472,7 +2223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1480,7 +2231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1488,7 +2239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1496,7 +2247,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1504,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1512,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1520,7 +2271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1528,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1536,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1544,7 +2295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1552,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1560,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1568,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1585,13 +2336,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1599,7 +2350,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1607,7 +2358,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1615,7 +2366,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1623,7 +2374,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1631,7 +2382,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1639,7 +2390,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1647,7 +2398,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1655,7 +2406,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1663,7 +2414,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1671,7 +2422,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1679,7 +2430,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1687,7 +2438,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1695,7 +2446,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1703,7 +2454,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1711,7 +2462,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1719,7 +2470,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1727,7 +2478,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1735,7 +2486,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1743,7 +2494,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1751,7 +2502,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1765,6 +2516,18 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3EAF31-D4D5-4176-86BD-461EB389AE33}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1772,12 +2535,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.15625" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.15625" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1785,7 +2548,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1793,7 +2556,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1801,7 +2564,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1809,7 +2572,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1817,7 +2580,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1825,7 +2588,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1833,7 +2596,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1841,7 +2604,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1849,7 +2612,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1857,7 +2620,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1865,7 +2628,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1873,7 +2636,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1881,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1889,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1897,7 +2660,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1905,7 +2668,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1913,7 +2676,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1921,7 +2684,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1929,7 +2692,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1937,7 +2700,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1948,190 +2711,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
-  <cols>
-    <col min="1" max="1" width="18.578125" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.55000000000000004">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>
--- a/OrbisGame/Container/Data/WaffenCustom.xlsx
+++ b/OrbisGame/Container/Data/WaffenCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D1225960-BC30-418B-8581-0CA959ABDF82}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43280477-6D44-4DC9-A354-BAC3481B722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
@@ -20,12 +20,11 @@
     <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId5"/>
     <sheet name="AST" sheetId="6" r:id="rId6"/>
     <sheet name="Feuerhand" sheetId="7" r:id="rId7"/>
-    <sheet name="Tabelle1" sheetId="11" r:id="rId8"/>
-    <sheet name="Froschzunge" sheetId="9" r:id="rId9"/>
-    <sheet name="Schnabel" sheetId="10" r:id="rId10"/>
-    <sheet name="Schwur" sheetId="12" r:id="rId11"/>
-    <sheet name="Erbentöter" sheetId="13" r:id="rId12"/>
-    <sheet name="Verraetersende" sheetId="14" r:id="rId13"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId8"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId9"/>
+    <sheet name="Schwur" sheetId="12" r:id="rId10"/>
+    <sheet name="Erbentöter" sheetId="13" r:id="rId11"/>
+    <sheet name="Verraetersende" sheetId="14" r:id="rId12"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -498,12 +497,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -511,7 +510,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -519,7 +518,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -527,7 +526,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -535,7 +534,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -543,7 +542,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -551,7 +550,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -559,7 +558,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -567,7 +566,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -575,7 +574,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -583,7 +582,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -591,7 +590,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -599,7 +598,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -607,7 +606,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -615,7 +614,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -623,7 +622,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -631,7 +630,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -639,7 +638,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -647,7 +646,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -655,7 +654,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -663,7 +662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -677,192 +676,6 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A1:B21"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA464286-EBB9-42CB-92AF-99DBB7213220}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -870,9 +683,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -880,7 +693,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -888,7 +701,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -896,7 +709,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -904,7 +717,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -912,7 +725,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -920,7 +733,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -928,7 +741,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -936,7 +749,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -944,7 +757,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -952,7 +765,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -960,7 +773,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -968,7 +781,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -976,7 +789,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -984,7 +797,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -992,7 +805,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +813,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1008,7 +821,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +829,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +837,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1032,12 +845,195 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
       <c r="B21">
         <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="N11" sqref="N11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
       </c>
     </row>
   </sheetData>
@@ -1046,16 +1042,16 @@
 </file>
 
 <file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I19" sqref="I19"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1063,23 +1059,23 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1087,23 +1083,23 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1111,15 +1107,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
       <c r="B8">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1127,15 +1123,15 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
       <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1139,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1147,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1159,15 +1155,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1171,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1183,222 +1179,39 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
       <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
       <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
       <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1419,12 +1232,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1245,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1253,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1261,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1269,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1277,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1285,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1293,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1301,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1309,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1317,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1512,7 +1325,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1333,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1528,7 +1341,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +1349,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1357,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1365,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1373,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1381,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1389,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1584,7 +1397,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1601,16 +1414,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:B21"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1431,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1439,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1634,7 +1447,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1455,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1463,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1471,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1479,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1487,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1495,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1690,7 +1503,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +1511,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1706,7 +1519,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1527,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1722,7 +1535,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1543,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1551,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +1559,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1567,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1762,7 +1575,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1583,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1791,9 +1604,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1614,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1622,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +1630,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1638,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1646,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1654,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1662,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1670,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +1678,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +1686,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1694,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1702,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1897,7 +1710,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1905,7 +1718,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +1726,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1734,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1758,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +1766,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1974,9 +1787,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1984,7 +1797,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +1805,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2000,7 +1813,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +1821,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +1829,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +1837,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +1845,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2040,7 +1853,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +1861,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +1869,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2064,7 +1877,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +1885,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2080,7 +1893,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2088,7 +1901,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +1909,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +1917,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +1925,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2120,7 +1933,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2128,7 +1941,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2136,7 +1949,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2157,9 +1970,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +1980,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2175,7 +1988,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +1996,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2004,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2012,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2207,7 +2020,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2028,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2036,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2044,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2239,7 +2052,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2060,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2068,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2076,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2084,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2092,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2100,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2108,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2116,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2311,7 +2124,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2319,7 +2132,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2340,9 +2153,9 @@
       <selection activeCell="H27" sqref="H27"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2350,7 +2163,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2358,7 +2171,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2366,7 +2179,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2374,7 +2187,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2382,7 +2195,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2390,7 +2203,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2398,7 +2211,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2406,7 +2219,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2414,7 +2227,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2422,7 +2235,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2430,7 +2243,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2438,7 +2251,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2446,7 +2259,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2454,7 +2267,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2462,7 +2275,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2470,7 +2283,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2478,7 +2291,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2486,7 +2299,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2494,7 +2307,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2502,7 +2315,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2516,18 +2329,6 @@
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3EAF31-D4D5-4176-86BD-461EB389AE33}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2535,12 +2336,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2548,7 +2349,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2556,7 +2357,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2564,7 +2365,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2572,7 +2373,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2580,7 +2381,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2588,7 +2389,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2596,7 +2397,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2604,7 +2405,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2612,7 +2413,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2620,7 +2421,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2628,7 +2429,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2636,7 +2437,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2644,7 +2445,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2652,7 +2453,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2660,7 +2461,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2668,7 +2469,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2676,7 +2477,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2684,7 +2485,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2692,7 +2493,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2700,7 +2501,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2711,4 +2512,190 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B21" sqref="A1:B21"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <cols>
+    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/OrbisGame/Container/Data/WaffenCustom.xlsx
+++ b/OrbisGame/Container/Data/WaffenCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24931"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{43280477-6D44-4DC9-A354-BAC3481B722F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EF013B-3B6D-4241-98AE-4EAE0B47176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
@@ -25,6 +25,7 @@
     <sheet name="Schwur" sheetId="12" r:id="rId10"/>
     <sheet name="Erbentöter" sheetId="13" r:id="rId11"/>
     <sheet name="Verraetersende" sheetId="14" r:id="rId12"/>
+    <sheet name="Giftbiss" sheetId="15" r:id="rId13"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -45,7 +46,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="325" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="352" uniqueCount="44">
   <si>
     <t>Werte</t>
   </si>
@@ -174,6 +175,9 @@
   </si>
   <si>
     <t>Ja</t>
+  </si>
+  <si>
+    <t>Biss</t>
   </si>
 </sst>
 </file>
@@ -497,12 +501,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -510,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -518,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -526,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -534,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -542,7 +546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -550,7 +554,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -558,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -566,7 +570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -574,7 +578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -582,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -590,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -598,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -606,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -614,7 +618,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -622,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -630,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -638,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -646,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -654,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -662,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -683,9 +687,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -693,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -701,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -709,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -717,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -725,7 +729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -733,7 +737,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -741,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -749,7 +753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -757,7 +761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -765,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -773,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -781,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -789,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -797,7 +801,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -805,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -813,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -821,7 +825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -829,7 +833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -837,7 +841,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -845,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -866,9 +870,9 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -876,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -884,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -892,7 +896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -900,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -908,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -916,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -924,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -932,7 +936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -940,7 +944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -948,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -956,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -964,7 +968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -972,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -980,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -988,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -996,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1004,7 +1008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1012,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1020,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1028,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1046,12 +1050,12 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F15" sqref="F15"/>
+      <selection activeCell="B21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1059,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1067,7 +1071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1075,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1083,7 +1087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1091,7 +1095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1099,7 +1103,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1107,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1115,7 +1119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1123,7 +1127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1131,7 +1135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1139,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1147,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1155,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1163,7 +1167,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1171,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1179,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1187,7 +1191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1195,7 +1199,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1203,7 +1207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1211,7 +1215,190 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="E8" sqref="E8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1232,12 +1419,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1171875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1245,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1253,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1261,7 +1448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1269,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1277,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1285,7 +1472,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1293,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1301,7 +1488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1309,7 +1496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1317,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1325,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1333,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1341,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1349,7 +1536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1357,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1365,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1373,7 +1560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1381,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1389,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1397,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1414,16 +1601,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1431,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1439,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1447,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1455,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1463,7 +1650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1471,7 +1658,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1479,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1487,7 +1674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1495,7 +1682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1503,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1511,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1519,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1527,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1535,7 +1722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1543,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1551,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1559,7 +1746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1567,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1575,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1583,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1604,9 +1791,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1614,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1622,7 +1809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1630,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1638,7 +1825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1646,7 +1833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1654,7 +1841,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1662,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1670,7 +1857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1678,7 +1865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1686,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1694,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1702,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1710,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1718,7 +1905,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1726,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1734,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1742,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1750,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1758,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1766,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1787,9 +1974,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1797,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1805,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1813,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1821,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1829,7 +2016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1837,7 +2024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1845,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1853,7 +2040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1861,7 +2048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1869,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1877,7 +2064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1885,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1893,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1901,7 +2088,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1909,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1917,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1925,7 +2112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1933,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1941,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1949,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1970,9 +2157,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1980,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1988,7 +2175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1996,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2004,7 +2191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2012,7 +2199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2020,7 +2207,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2028,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2036,7 +2223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2044,7 +2231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2052,7 +2239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2060,7 +2247,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2068,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2076,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2084,7 +2271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2092,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2100,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2108,7 +2295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2116,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2124,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2132,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2150,12 +2337,15 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H27" sqref="H27"/>
+      <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2163,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2171,7 +2361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2179,7 +2369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2187,7 +2377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2195,7 +2385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2203,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2211,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2219,7 +2409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2227,7 +2417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2235,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2243,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2251,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2259,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2267,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2275,7 +2465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2283,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2291,7 +2481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2299,7 +2489,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2307,7 +2497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2315,7 +2505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2336,12 +2526,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2349,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2357,7 +2547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2365,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2373,7 +2563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2381,7 +2571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2389,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2397,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2405,7 +2595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2413,7 +2603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2421,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2429,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2437,7 +2627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2445,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2453,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2461,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2469,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2477,7 +2667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2485,7 +2675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2493,7 +2683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2501,7 +2691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2522,12 +2712,12 @@
       <selection activeCell="B21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2535,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2543,7 +2733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2551,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2559,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2567,7 +2757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2575,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2583,7 +2773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2591,7 +2781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2599,7 +2789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2607,7 +2797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2615,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2623,7 +2813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2631,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2639,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2647,7 +2837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2655,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2663,7 +2853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2671,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2679,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2687,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>

--- a/OrbisGame/Container/Data/WaffenCustom.xlsx
+++ b/OrbisGame/Container/Data/WaffenCustom.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24326"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25028"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0EF013B-3B6D-4241-98AE-4EAE0B47176D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA301744-8A9A-450B-8AE6-DB3B9502D4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
@@ -501,12 +501,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -546,7 +546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -570,7 +570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -578,7 +578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -586,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -642,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -687,9 +687,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -753,7 +753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -769,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -849,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -870,9 +870,9 @@
       <selection activeCell="N11" sqref="N11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -904,7 +904,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -912,7 +912,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -936,7 +936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -944,7 +944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -968,7 +968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1050,12 +1050,12 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B21" sqref="A1:B21"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1087,7 +1087,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1095,7 +1095,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1159,7 +1159,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1167,7 +1167,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1233,12 +1233,12 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1270,15 +1270,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1286,15 +1286,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
       <c r="B7">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1382,15 +1382,15 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
       <c r="B19">
-        <v>64</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1419,12 +1419,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="16.109375" customWidth="1"/>
+    <col min="1" max="1" width="16.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1605,12 +1605,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1791,9 +1791,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1974,9 +1974,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2157,9 +2157,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2340,12 +2340,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="17.21875" customWidth="1"/>
+    <col min="1" max="1" width="17.234375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2526,12 +2526,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="19.109375" customWidth="1"/>
+    <col min="1" max="1" width="19.1171875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2712,12 +2712,12 @@
       <selection activeCell="B21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
   <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+    <col min="1" max="1" width="18.52734375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
       <c r="A21" t="s">
         <v>24</v>
       </c>

--- a/OrbisGame/Container/Data/WaffenCustom.xlsx
+++ b/OrbisGame/Container/Data/WaffenCustom.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Florian\Dropbox\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FA301744-8A9A-450B-8AE6-DB3B9502D4D5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FCEF8971-B880-48DD-88F1-CAE070811719}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" firstSheet="3" activeTab="12" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="5" activeTab="10" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Beispielwaffe" sheetId="1" r:id="rId1"/>
@@ -501,12 +501,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -514,7 +514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -522,7 +522,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -530,7 +530,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -538,7 +538,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -546,7 +546,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -554,7 +554,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -562,7 +562,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -570,7 +570,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -578,7 +578,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -586,7 +586,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -594,7 +594,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -602,7 +602,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -610,7 +610,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -618,7 +618,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -626,7 +626,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -634,7 +634,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -642,7 +642,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -650,7 +650,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -658,7 +658,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -666,7 +666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -687,9 +687,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -697,7 +697,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -705,7 +705,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -713,7 +713,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -721,7 +721,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -729,7 +729,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -737,7 +737,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -745,7 +745,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -753,7 +753,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -761,7 +761,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -769,7 +769,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -777,7 +777,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -785,7 +785,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -793,7 +793,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -801,7 +801,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -809,7 +809,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -817,7 +817,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -825,7 +825,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -833,7 +833,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -841,7 +841,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -849,7 +849,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -866,13 +866,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="N11" sqref="N11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -880,7 +880,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -888,7 +888,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -896,7 +896,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -904,15 +904,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -920,7 +920,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -928,7 +928,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -936,7 +936,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -944,7 +944,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -952,7 +952,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -960,7 +960,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -968,7 +968,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -976,7 +976,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -984,7 +984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -992,7 +992,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1000,7 +1000,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1008,7 +1008,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1016,7 +1016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1024,7 +1024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1032,7 +1032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1050,12 +1050,12 @@
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1063,7 +1063,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1071,7 +1071,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1079,7 +1079,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1087,15 +1087,15 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1103,7 +1103,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1111,7 +1111,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1119,7 +1119,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1127,7 +1127,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1135,7 +1135,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1143,7 +1143,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1151,7 +1151,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1159,15 +1159,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1175,7 +1175,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1183,7 +1183,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1191,7 +1191,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1199,7 +1199,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1207,7 +1207,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1215,7 +1215,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1232,13 +1232,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1246,7 +1246,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1254,7 +1254,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1262,7 +1262,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1270,7 +1270,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1278,7 +1278,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1286,7 +1286,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1294,7 +1294,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1302,7 +1302,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1310,7 +1310,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1318,7 +1318,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1326,7 +1326,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1334,7 +1334,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1342,7 +1342,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1350,7 +1350,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1358,7 +1358,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1366,7 +1366,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1374,7 +1374,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1382,7 +1382,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1390,7 +1390,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1398,7 +1398,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1419,12 +1419,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1171875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1432,7 +1432,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1440,7 +1440,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1448,7 +1448,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1456,7 +1456,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1464,7 +1464,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1472,7 +1472,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1480,7 +1480,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1488,7 +1488,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1496,7 +1496,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1504,7 +1504,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1512,7 +1512,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1520,7 +1520,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1528,7 +1528,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1536,7 +1536,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1544,7 +1544,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1552,7 +1552,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1560,7 +1560,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1568,7 +1568,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1576,7 +1576,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1584,7 +1584,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1605,12 +1605,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1618,7 +1618,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1626,7 +1626,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1634,7 +1634,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1642,7 +1642,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1650,7 +1650,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1658,7 +1658,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1666,7 +1666,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1674,7 +1674,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1682,7 +1682,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1690,7 +1690,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1698,7 +1698,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1706,7 +1706,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1714,7 +1714,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1722,7 +1722,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1730,7 +1730,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1738,7 +1738,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1746,7 +1746,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1754,7 +1754,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1762,7 +1762,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1770,7 +1770,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1791,9 +1791,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1801,7 +1801,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1809,7 +1809,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1817,7 +1817,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1825,7 +1825,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1833,7 +1833,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1841,7 +1841,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1849,7 +1849,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1857,7 +1857,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1865,7 +1865,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1873,7 +1873,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1881,7 +1881,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1889,7 +1889,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1897,7 +1897,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1905,7 +1905,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1913,7 +1913,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1921,7 +1921,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1929,7 +1929,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1937,7 +1937,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1945,7 +1945,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1953,7 +1953,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1974,9 +1974,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1984,7 +1984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1992,7 +1992,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2000,7 +2000,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2008,7 +2008,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2016,7 +2016,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2024,7 +2024,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2032,7 +2032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2040,7 +2040,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2048,7 +2048,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2056,7 +2056,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2064,7 +2064,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2072,7 +2072,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2080,7 +2080,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2088,7 +2088,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2096,7 +2096,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2104,7 +2104,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2112,7 +2112,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2120,7 +2120,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2128,7 +2128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2136,7 +2136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2157,9 +2157,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2167,7 +2167,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2175,7 +2175,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2183,7 +2183,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2191,7 +2191,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2199,7 +2199,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2207,7 +2207,7 @@
         <v>0.15</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2215,7 +2215,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2223,7 +2223,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2231,7 +2231,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2239,7 +2239,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2247,7 +2247,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2255,7 +2255,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2263,7 +2263,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2271,7 +2271,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2279,7 +2279,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2287,7 +2287,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2295,7 +2295,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2303,7 +2303,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2311,7 +2311,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2319,7 +2319,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2340,12 +2340,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2353,7 +2353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2361,7 +2361,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2369,7 +2369,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2377,7 +2377,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2385,7 +2385,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2393,7 +2393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2401,7 +2401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2409,7 +2409,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2417,7 +2417,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2425,7 +2425,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2433,7 +2433,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2441,7 +2441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2449,7 +2449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2457,7 +2457,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2465,7 +2465,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2473,7 +2473,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2481,7 +2481,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2489,7 +2489,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2497,7 +2497,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2505,7 +2505,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2526,12 +2526,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2539,7 +2539,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2547,7 +2547,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2555,7 +2555,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2563,7 +2563,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2571,7 +2571,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2579,7 +2579,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2587,7 +2587,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2595,7 +2595,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2603,7 +2603,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2611,7 +2611,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2619,7 +2619,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2627,7 +2627,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2635,7 +2635,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2643,7 +2643,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2651,7 +2651,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2659,7 +2659,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2667,7 +2667,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2675,7 +2675,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2683,7 +2683,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2691,7 +2691,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2712,12 +2712,12 @@
       <selection activeCell="B21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2725,7 +2725,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2733,7 +2733,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2741,7 +2741,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2749,7 +2749,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2757,7 +2757,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2765,7 +2765,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2773,7 +2773,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2781,7 +2781,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2789,7 +2789,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2797,7 +2797,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2805,7 +2805,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2813,7 +2813,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2821,7 +2821,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2829,7 +2829,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2837,7 +2837,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2845,7 +2845,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2853,7 +2853,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2861,7 +2861,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2869,7 +2869,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2877,7 +2877,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>

--- a/OrbisGame/Container/Data/WaffenCustom.xlsx
+++ b/OrbisGame/Container/Data/WaffenCustom.xlsx
@@ -1,34 +1,35 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25128"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="25225"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\Dropbox\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8D593426-A703-4196-B97E-0E42202BCCDC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FCD9E-C473-4489-988A-8FF1C4978591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-57720" yWindow="8055" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
-    <sheet name="Dudelsack" sheetId="18" r:id="rId1"/>
-    <sheet name="Trommel" sheetId="17" r:id="rId2"/>
-    <sheet name="Laute" sheetId="16" r:id="rId3"/>
-    <sheet name="Beispielwaffe" sheetId="1" r:id="rId4"/>
-    <sheet name="DotVersuch" sheetId="3" r:id="rId5"/>
-    <sheet name="Stahlnase" sheetId="2" r:id="rId6"/>
-    <sheet name="Seelenbrandt" sheetId="4" r:id="rId7"/>
-    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId8"/>
-    <sheet name="AST" sheetId="6" r:id="rId9"/>
-    <sheet name="Feuerhand" sheetId="7" r:id="rId10"/>
-    <sheet name="Froschzunge" sheetId="9" r:id="rId11"/>
-    <sheet name="Schnabel" sheetId="10" r:id="rId12"/>
-    <sheet name="Schwur" sheetId="12" r:id="rId13"/>
-    <sheet name="Erbentöter" sheetId="13" r:id="rId14"/>
-    <sheet name="Verraetersende" sheetId="14" r:id="rId15"/>
-    <sheet name="Giftbiss" sheetId="15" r:id="rId16"/>
+    <sheet name="Trompete" sheetId="19" r:id="rId1"/>
+    <sheet name="Dudelsack" sheetId="18" r:id="rId2"/>
+    <sheet name="Trommel" sheetId="17" r:id="rId3"/>
+    <sheet name="Laute" sheetId="16" r:id="rId4"/>
+    <sheet name="Beispielwaffe" sheetId="1" r:id="rId5"/>
+    <sheet name="DotVersuch" sheetId="3" r:id="rId6"/>
+    <sheet name="Stahlnase" sheetId="2" r:id="rId7"/>
+    <sheet name="Seelenbrandt" sheetId="4" r:id="rId8"/>
+    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId9"/>
+    <sheet name="AST" sheetId="6" r:id="rId10"/>
+    <sheet name="Feuerhand" sheetId="7" r:id="rId11"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId12"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId13"/>
+    <sheet name="Schwur" sheetId="12" r:id="rId14"/>
+    <sheet name="Erbentöter" sheetId="13" r:id="rId15"/>
+    <sheet name="Verraetersende" sheetId="14" r:id="rId16"/>
+    <sheet name="Giftbiss" sheetId="15" r:id="rId17"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -49,7 +50,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="433" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="49">
   <si>
     <t>Werte</t>
   </si>
@@ -512,19 +513,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64720462-8D1F-4DE8-9C5C-4F859004B265}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B843EF-3A8F-4FE9-BB84-06C15F548846}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B20" sqref="B20"/>
+      <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -532,15 +533,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -548,31 +549,31 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
       <c r="B4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
       <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
       <c r="B6">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -580,7 +581,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -588,7 +589,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -596,7 +597,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -604,7 +605,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -612,7 +613,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -620,7 +621,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -628,15 +629,15 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
       <c r="B14">
-        <v>0.1</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -644,7 +645,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -652,7 +653,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -660,7 +661,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -668,7 +669,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -676,7 +677,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -684,7 +685,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -698,6 +699,189 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.15</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -705,12 +889,12 @@
       <selection activeCell="B3" sqref="B3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="17.234375" customWidth="1"/>
+    <col min="1" max="1" width="17.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -718,7 +902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -726,7 +910,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -734,7 +918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -742,7 +926,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -750,7 +934,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -758,7 +942,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -766,7 +950,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -774,7 +958,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -782,7 +966,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -790,7 +974,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -798,7 +982,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -806,7 +990,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -814,7 +998,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -822,7 +1006,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -830,7 +1014,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -838,7 +1022,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -846,7 +1030,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -854,7 +1038,7 @@
         <v>10000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -862,7 +1046,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -870,7 +1054,7 @@
         <v>80</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -883,7 +1067,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -891,12 +1075,12 @@
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -904,7 +1088,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -912,7 +1096,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -920,7 +1104,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -928,7 +1112,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -936,7 +1120,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -944,7 +1128,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -952,7 +1136,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -960,7 +1144,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -968,7 +1152,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -976,7 +1160,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -984,7 +1168,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -992,7 +1176,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1000,7 +1184,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1008,7 +1192,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1016,7 +1200,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1024,7 +1208,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1032,7 +1216,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1040,7 +1224,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1048,7 +1232,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1056,7 +1240,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1069,7 +1253,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1077,12 +1261,12 @@
       <selection activeCell="B21" sqref="A1:B21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1090,7 +1274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1098,7 +1282,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1106,7 +1290,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1114,7 +1298,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1122,7 +1306,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1130,7 +1314,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1138,7 +1322,7 @@
         <v>0.5</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1146,7 +1330,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1154,7 +1338,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1162,7 +1346,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1170,7 +1354,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1178,7 +1362,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1186,7 +1370,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1194,7 +1378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1202,7 +1386,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1210,7 +1394,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1218,7 +1402,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1226,7 +1410,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1234,7 +1418,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1242,7 +1426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1255,7 +1439,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA464286-EBB9-42CB-92AF-99DBB7213220}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1263,9 +1447,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1273,7 +1457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1281,7 +1465,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1289,7 +1473,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1297,7 +1481,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1305,7 +1489,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1313,7 +1497,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1321,7 +1505,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1329,7 +1513,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1337,7 +1521,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1345,7 +1529,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1353,7 +1537,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1361,7 +1545,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1369,7 +1553,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1377,7 +1561,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1385,7 +1569,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1393,7 +1577,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1401,7 +1585,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1409,7 +1593,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1417,7 +1601,7 @@
         <v>0.06</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1425,7 +1609,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1438,7 +1622,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1446,9 +1630,9 @@
       <selection activeCell="H18" sqref="H18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1456,7 +1640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1464,7 +1648,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1472,7 +1656,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1480,7 +1664,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1488,7 +1672,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1496,7 +1680,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1504,7 +1688,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1512,7 +1696,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1520,7 +1704,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1528,7 +1712,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1536,7 +1720,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1544,7 +1728,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1552,7 +1736,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1560,7 +1744,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1568,7 +1752,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1576,7 +1760,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1584,7 +1768,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1592,7 +1776,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1600,7 +1784,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1608,7 +1792,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1621,7 +1805,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1629,9 +1813,9 @@
       <selection activeCell="F14" sqref="F14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1639,7 +1823,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1647,7 +1831,7 @@
         <v>41</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1655,7 +1839,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1663,7 +1847,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1671,7 +1855,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1679,7 +1863,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1687,7 +1871,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1695,7 +1879,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1703,7 +1887,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1711,7 +1895,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1719,7 +1903,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1727,7 +1911,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1735,7 +1919,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1743,7 +1927,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1751,7 +1935,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1759,7 +1943,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1767,7 +1951,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1775,7 +1959,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1783,7 +1967,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1791,7 +1975,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1804,7 +1988,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1812,9 +1996,9 @@
       <selection activeCell="G12" sqref="G12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -1822,7 +2006,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -1830,7 +2014,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -1838,7 +2022,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -1846,7 +2030,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -1854,7 +2038,7 @@
         <v>8</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -1862,7 +2046,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -1870,7 +2054,7 @@
         <v>0.3</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -1878,7 +2062,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -1886,7 +2070,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -1894,7 +2078,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -1902,7 +2086,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -1910,7 +2094,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -1918,7 +2102,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -1926,7 +2110,7 @@
         <v>0.7</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -1934,7 +2118,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1942,7 +2126,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -1950,7 +2134,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -1958,7 +2142,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -1966,7 +2150,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -1974,7 +2158,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -1988,6 +2172,192 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64720462-8D1F-4DE8-9C5C-4F859004B265}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B20" sqref="B20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA5D63-CF23-46F1-B5E7-44C754F57F8F}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1995,12 +2365,12 @@
       <selection activeCell="B18" sqref="B18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2008,7 +2378,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2016,7 +2386,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2024,7 +2394,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2032,7 +2402,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2040,7 +2410,7 @@
         <v>20</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2048,7 +2418,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2056,7 +2426,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2064,7 +2434,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2072,7 +2442,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2080,7 +2450,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2088,7 +2458,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2096,7 +2466,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2104,7 +2474,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2112,7 +2482,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2120,7 +2490,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2128,7 +2498,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2136,7 +2506,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2144,7 +2514,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2152,7 +2522,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2160,7 +2530,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2173,7 +2543,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEEC44D-BC5F-487F-937F-771F48973BE1}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2181,12 +2551,12 @@
       <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2194,7 +2564,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2202,7 +2572,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2210,7 +2580,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2218,7 +2588,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2226,7 +2596,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2234,7 +2604,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2242,7 +2612,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2250,7 +2620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2258,7 +2628,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2266,7 +2636,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2274,7 +2644,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2282,7 +2652,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2290,7 +2660,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2298,7 +2668,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2306,7 +2676,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2314,7 +2684,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2322,7 +2692,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2330,7 +2700,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2338,7 +2708,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2346,7 +2716,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2359,7 +2729,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2367,12 +2737,12 @@
       <selection activeCell="H26" sqref="H26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="9.1171875" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="19.1171875" customWidth="1"/>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2380,7 +2750,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2388,7 +2758,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2396,7 +2766,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2404,7 +2774,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2412,7 +2782,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2420,7 +2790,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2428,7 +2798,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2436,7 +2806,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2444,7 +2814,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2452,7 +2822,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2460,7 +2830,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2468,7 +2838,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2476,7 +2846,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2484,7 +2854,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2492,7 +2862,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2500,7 +2870,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2508,7 +2878,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2516,7 +2886,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2524,7 +2894,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2532,7 +2902,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2545,7 +2915,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2553,12 +2923,12 @@
       <selection activeCell="I23" sqref="I23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="16.1171875" customWidth="1"/>
+    <col min="1" max="1" width="16.109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2566,7 +2936,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2574,7 +2944,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2582,7 +2952,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2590,7 +2960,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2598,7 +2968,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2606,7 +2976,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2614,7 +2984,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2622,7 +2992,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2630,7 +3000,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2638,7 +3008,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2646,7 +3016,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2654,7 +3024,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2662,7 +3032,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2670,7 +3040,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2678,7 +3048,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2686,7 +3056,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2694,7 +3064,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2702,7 +3072,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2710,7 +3080,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2718,7 +3088,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2731,7 +3101,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2739,12 +3109,12 @@
       <selection activeCell="G20" sqref="G20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="18.52734375" customWidth="1"/>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2752,7 +3122,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2760,7 +3130,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2768,7 +3138,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2776,7 +3146,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2784,7 +3154,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2792,7 +3162,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2800,7 +3170,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2808,7 +3178,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2816,7 +3186,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -2824,7 +3194,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -2832,7 +3202,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -2840,7 +3210,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -2848,7 +3218,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -2856,7 +3226,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -2864,7 +3234,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -2872,7 +3242,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -2880,7 +3250,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -2888,7 +3258,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -2896,7 +3266,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -2904,7 +3274,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -2917,7 +3287,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2925,9 +3295,9 @@
       <selection activeCell="C33" sqref="C33"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -2935,7 +3305,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -2943,7 +3313,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2951,7 +3321,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -2959,7 +3329,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -2967,7 +3337,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -2975,7 +3345,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -2983,7 +3353,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -2991,7 +3361,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -2999,7 +3369,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3007,7 +3377,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3015,7 +3385,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3023,7 +3393,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3031,7 +3401,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3039,7 +3409,7 @@
         <v>0.2</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3047,7 +3417,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3055,7 +3425,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3063,7 +3433,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3071,7 +3441,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3079,7 +3449,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3087,7 +3457,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>
@@ -3100,7 +3470,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -3108,9 +3478,9 @@
       <selection activeCell="A14" sqref="A14:XFD14"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>18</v>
       </c>
@@ -3118,7 +3488,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -3126,7 +3496,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -3134,7 +3504,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>5</v>
       </c>
@@ -3142,7 +3512,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>7</v>
       </c>
@@ -3150,7 +3520,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>8</v>
       </c>
@@ -3158,7 +3528,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>9</v>
       </c>
@@ -3166,7 +3536,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>25</v>
       </c>
@@ -3174,7 +3544,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>10</v>
       </c>
@@ -3182,7 +3552,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>11</v>
       </c>
@@ -3190,7 +3560,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>13</v>
       </c>
@@ -3198,7 +3568,7 @@
         <v>0.8</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>14</v>
       </c>
@@ -3206,7 +3576,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>15</v>
       </c>
@@ -3214,7 +3584,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>32</v>
       </c>
@@ -3222,7 +3592,7 @@
         <v>0.4</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>17</v>
       </c>
@@ -3230,7 +3600,7 @@
         <v>14</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -3238,7 +3608,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>19</v>
       </c>
@@ -3246,7 +3616,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>20</v>
       </c>
@@ -3254,7 +3624,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>21</v>
       </c>
@@ -3262,7 +3632,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>23</v>
       </c>
@@ -3270,190 +3640,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.35" x14ac:dyDescent="0.5"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.15</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.5">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.5">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>24</v>
       </c>

--- a/OrbisGame/Container/Data/WaffenCustom.xlsx
+++ b/OrbisGame/Container/Data/WaffenCustom.xlsx
@@ -8,28 +8,31 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Admin\Dropbox\OrbisAstea\Rpg\Container\Data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B76FCD9E-C473-4489-988A-8FF1C4978591}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{82936182-5C09-4B62-AFEC-320961F6769A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" activeTab="5" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Trompete" sheetId="19" r:id="rId1"/>
     <sheet name="Dudelsack" sheetId="18" r:id="rId2"/>
     <sheet name="Trommel" sheetId="17" r:id="rId3"/>
-    <sheet name="Laute" sheetId="16" r:id="rId4"/>
-    <sheet name="Beispielwaffe" sheetId="1" r:id="rId5"/>
-    <sheet name="DotVersuch" sheetId="3" r:id="rId6"/>
-    <sheet name="Stahlnase" sheetId="2" r:id="rId7"/>
-    <sheet name="Seelenbrandt" sheetId="4" r:id="rId8"/>
-    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId9"/>
-    <sheet name="AST" sheetId="6" r:id="rId10"/>
-    <sheet name="Feuerhand" sheetId="7" r:id="rId11"/>
-    <sheet name="Froschzunge" sheetId="9" r:id="rId12"/>
-    <sheet name="Schnabel" sheetId="10" r:id="rId13"/>
-    <sheet name="Schwur" sheetId="12" r:id="rId14"/>
-    <sheet name="Erbentöter" sheetId="13" r:id="rId15"/>
-    <sheet name="Verraetersende" sheetId="14" r:id="rId16"/>
-    <sheet name="Giftbiss" sheetId="15" r:id="rId17"/>
+    <sheet name="Flöte" sheetId="20" r:id="rId4"/>
+    <sheet name="Horn" sheetId="21" r:id="rId5"/>
+    <sheet name="Geige" sheetId="22" r:id="rId6"/>
+    <sheet name="Laute" sheetId="16" r:id="rId7"/>
+    <sheet name="Beispielwaffe" sheetId="1" r:id="rId8"/>
+    <sheet name="DotVersuch" sheetId="3" r:id="rId9"/>
+    <sheet name="Stahlnase" sheetId="2" r:id="rId10"/>
+    <sheet name="Seelenbrandt" sheetId="4" r:id="rId11"/>
+    <sheet name="Seelenbrandt Versiegelt" sheetId="5" r:id="rId12"/>
+    <sheet name="AST" sheetId="6" r:id="rId13"/>
+    <sheet name="Feuerhand" sheetId="7" r:id="rId14"/>
+    <sheet name="Froschzunge" sheetId="9" r:id="rId15"/>
+    <sheet name="Schnabel" sheetId="10" r:id="rId16"/>
+    <sheet name="Schwur" sheetId="12" r:id="rId17"/>
+    <sheet name="Erbentöter" sheetId="13" r:id="rId18"/>
+    <sheet name="Verraetersende" sheetId="14" r:id="rId19"/>
+    <sheet name="Giftbiss" sheetId="15" r:id="rId20"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -50,7 +53,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="460" uniqueCount="49">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="541" uniqueCount="52">
   <si>
     <t>Werte</t>
   </si>
@@ -197,6 +200,15 @@
   </si>
   <si>
     <t>Groß</t>
+  </si>
+  <si>
+    <t>Flöte</t>
+  </si>
+  <si>
+    <t>Horn</t>
+  </si>
+  <si>
+    <t>Geige</t>
   </si>
 </sst>
 </file>
@@ -516,7 +528,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C0B843EF-3A8F-4FE9-BB84-06C15F548846}">
   <dimension ref="A1:B21"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B22" sqref="B22"/>
     </sheetView>
   </sheetViews>
@@ -699,6 +711,558 @@
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G20" sqref="G20"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="18.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C33" sqref="C33"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A14" sqref="A14:XFD14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0.8</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.4</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC71AED8-DDD6-4D6C-BDBB-AB72DA8E5E1E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -881,7 +1445,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{68A300C0-B3C3-4153-9C78-A5B585BFE8A7}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1067,7 +1631,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C7630E5-09F6-47BA-B44D-258878F5A7ED}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1253,7 +1817,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{333B9D8C-3A96-40B4-9C04-76254A4410B9}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1439,7 +2003,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{AA464286-EBB9-42CB-92AF-99DBB7213220}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1622,7 +2186,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{31F6B749-C2E6-424B-B50B-3D6E68F95F46}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1805,7 +2369,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{3AD5A240-05EE-476B-90A1-43616C5C1FD2}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -1973,189 +2537,6 @@
       </c>
       <c r="B20">
         <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G12" sqref="G12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0.3</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.7</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>1000</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>100</v>
       </c>
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
@@ -2357,6 +2738,189 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4734603A-8896-4DC8-95FC-7ABFE53B20F3}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G12" sqref="G12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.3</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.7</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>1000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{43EA5D63-CF23-46F1-B5E7-44C754F57F8F}">
   <dimension ref="A1:B21"/>
@@ -2544,6 +3108,564 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{ABDD4AFC-78F2-476A-9D18-FF3D0E89E0CA}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6530AF1B-DEDA-49BC-A8B1-CDFFF045C3AA}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5F89AFB9-FE3C-493B-BE82-58B5370138E8}">
+  <dimension ref="A1:B21"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="19.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>5</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>7</v>
+      </c>
+      <c r="B5">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>8</v>
+      </c>
+      <c r="B6">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>9</v>
+      </c>
+      <c r="B7">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>10</v>
+      </c>
+      <c r="B9">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>11</v>
+      </c>
+      <c r="B10" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>13</v>
+      </c>
+      <c r="B11">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>14</v>
+      </c>
+      <c r="B12">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>15</v>
+      </c>
+      <c r="B13">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>32</v>
+      </c>
+      <c r="B14">
+        <v>0.2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>17</v>
+      </c>
+      <c r="B15">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>19</v>
+      </c>
+      <c r="B17" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>20</v>
+      </c>
+      <c r="B18">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>21</v>
+      </c>
+      <c r="B19">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" t="s">
+        <v>24</v>
+      </c>
+      <c r="B21">
+        <v>0</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2FEEC44D-BC5F-487F-937F-771F48973BE1}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -2729,12 +3851,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="H26" sqref="H26"/>
+      <selection activeCell="E23" sqref="E23"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="9.109375" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2915,7 +4037,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B03C662B-55C8-41F7-AE8C-C211C522006E}">
   <dimension ref="A1:B21"/>
   <sheetViews>
@@ -3099,556 +4221,4 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FC4E1006-A893-4179-AA67-3E7226E5D78C}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="G20" sqref="G20"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="18.5546875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{925DF16B-7FCB-49F2-A76A-9D1A27F3CFF5}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C33" sqref="C33"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{398622D2-6100-45FA-82F2-9BC9E7C6A51D}">
-  <dimension ref="A1:B21"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A14" sqref="A14:XFD14"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>3</v>
-      </c>
-      <c r="B3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>5</v>
-      </c>
-      <c r="B4" t="s">
-        <v>28</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>7</v>
-      </c>
-      <c r="B5">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>8</v>
-      </c>
-      <c r="B6">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>9</v>
-      </c>
-      <c r="B7">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>25</v>
-      </c>
-      <c r="B8">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" t="s">
-        <v>10</v>
-      </c>
-      <c r="B9">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>11</v>
-      </c>
-      <c r="B10" t="s">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>13</v>
-      </c>
-      <c r="B11">
-        <v>0.8</v>
-      </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
-        <v>14</v>
-      </c>
-      <c r="B12">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
-        <v>15</v>
-      </c>
-      <c r="B13">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
-        <v>32</v>
-      </c>
-      <c r="B14">
-        <v>0.4</v>
-      </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
-        <v>17</v>
-      </c>
-      <c r="B15">
-        <v>14</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
-        <v>16</v>
-      </c>
-      <c r="B16">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
-        <v>19</v>
-      </c>
-      <c r="B17" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>20</v>
-      </c>
-      <c r="B18">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" t="s">
-        <v>21</v>
-      </c>
-      <c r="B19">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
-        <v>23</v>
-      </c>
-      <c r="B20">
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" t="s">
-        <v>24</v>
-      </c>
-      <c r="B21">
-        <v>0</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.78740157499999996" bottom="0.78740157499999996" header="0.3" footer="0.3"/>
-</worksheet>
 </file>